--- a/output7/【河洛文讀注音-閩拼調號】《出師表》.xlsx
+++ b/output7/【河洛文讀注音-閩拼調號】《出師表》.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{29F2E125-48A2-43A7-A296-119CF4E85FDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9081BE20-53EA-4618-A4FC-D6BB521AAF67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25860" yWindow="2070" windowWidth="25080" windowHeight="12270" activeTab="4" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
   </bookViews>
   <sheets>
     <sheet name="env" sheetId="8" r:id="rId1"/>
@@ -10095,7 +10095,7 @@
   <dimension ref="B1:K20"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15" defaultRowHeight="25.5"/>
@@ -10265,7 +10265,7 @@
         <v>1156</v>
       </c>
       <c r="C20" s="47">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
